--- a/Setup/Forsøg1_dingenoter.xlsx
+++ b/Setup/Forsøg1_dingenoter.xlsx
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>U (V)</t>
-  </si>
   <si>
     <t>Xl</t>
   </si>
@@ -59,16 +56,19 @@
     <t>Ip (mA)</t>
   </si>
   <si>
-    <t>R (Ohm)</t>
+    <t>Frekvens (Hz)</t>
   </si>
   <si>
-    <t>Up (V)</t>
+    <t>Vr</t>
   </si>
   <si>
-    <t>I (mA)</t>
+    <t>Vc</t>
   </si>
   <si>
-    <t>Frekvens (Hz)</t>
+    <t>Vl</t>
+  </si>
+  <si>
+    <t>Vp (V)</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -131,6 +144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,7 +1800,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,7 +1813,7 @@
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>500</v>
@@ -1838,350 +1854,338 @@
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
-        <f>C8/SQRT(500^2+(C9-C10)^2)</f>
-        <v>3.2000000000000006</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:N3" si="0">D8/SQRT(500^2+(D9-D10)^2)</f>
-        <v>7.2000000000000011</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>19.8</v>
-      </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>14.200000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>9.4</v>
+        <v>4.7</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000012</v>
+        <v>2.7</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>3.3999999999999995</v>
+        <v>1.7</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="3">
-        <v>500</v>
+        <v>2.4</v>
       </c>
       <c r="E5" s="3">
-        <v>500</v>
+        <v>12.3</v>
       </c>
       <c r="F5" s="3">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="G5" s="3">
-        <v>500</v>
+        <v>14.2</v>
       </c>
       <c r="H5" s="3">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="I5" s="3">
-        <v>500</v>
+        <v>11.4</v>
       </c>
       <c r="J5" s="3">
-        <v>500</v>
+        <v>10.7</v>
       </c>
       <c r="K5" s="3">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="L5" s="3">
-        <v>500</v>
+        <v>10.3</v>
       </c>
       <c r="M5" s="3">
-        <v>500</v>
+        <v>10.3</v>
       </c>
       <c r="N5" s="3">
-        <v>500</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.5</v>
+      <c r="C6" s="7">
+        <f>2*PI()*C2*0.0525</f>
+        <v>164.93361431346412</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:N6" si="0">2*PI()*D2*0.0525</f>
+        <v>329.86722862692824</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>659.73445725385648</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>724.71830129336138</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>989.60168588078477</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1319.468914507713</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>1649.3361431346414</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>1979.2033717615695</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>2309.070600388498</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>2638.9378290154259</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>2968.8050576423543</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>3298.6722862692827</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <f>C6/500*10^3</f>
-        <v>3.2</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:N7" si="1">D6/500*10^3</f>
-        <v>7.2</v>
-      </c>
-      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <f>1/(2*PI()*C2*0.1*10^-6)</f>
+        <v>3183.098861837907</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:N7" si="1">1/(2*PI()*D2*0.1*10^-6)</f>
+        <v>1591.5494309189535</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F7" s="3">
+        <v>795.77471545947674</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>19.8</v>
-      </c>
-      <c r="G7" s="3">
+        <v>724.41940415063868</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>14.2</v>
-      </c>
-      <c r="H7" s="3">
+        <v>530.51647697298449</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="I7" s="3">
+        <v>397.88735772973837</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="J7" s="3">
+        <v>318.30988618379064</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="K7" s="3">
+        <v>265.25823848649225</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L7" s="3">
+        <v>227.36420441699337</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="M7" s="3">
+        <v>198.94367886486918</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="N7" s="3">
+        <v>176.83882565766146</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>159.15494309189532</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <f>SQRT(C7^2*500^2+(C7*C9-C7*C10)^2)</f>
-        <v>9789.7626000005876</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SQRT(D7^2*500^2+(D7*D9-D7*D10)^2)</f>
-        <v>9771.4424841704313</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" ref="E8:F8" si="2">SQRT(E7^2*500^2+(E7*E9-E7*E10)^2)</f>
-        <v>9638.0840971088983</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>9900.0017689219803</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:N8" si="3">SQRT(G7^2*500^2+(G7*G9-G7*G10)^2)</f>
-        <v>9638.8531964754966</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>9855.7221102006188</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>9668.5165699328172</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>9641.0915846507105</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>9420.0100535187903</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="3"/>
-        <v>9464.6485290254423</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>9643.7063462485621</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="3"/>
-        <v>9537.2492015782209</v>
-      </c>
-    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:N9" si="4">2*PI()*C2*0.0525</f>
-        <v>164.93361431346412</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="4"/>
-        <v>329.86722862692824</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="4"/>
-        <v>659.73445725385648</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="4"/>
-        <v>724.71830129336138</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="4"/>
-        <v>989.60168588078477</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="4"/>
-        <v>1319.468914507713</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>1649.3361431346414</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="4"/>
-        <v>1979.2033717615695</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="4"/>
-        <v>2309.070600388498</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="4"/>
-        <v>2638.9378290154259</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="4"/>
-        <v>2968.8050576423543</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="4"/>
-        <v>3298.6722862692827</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SQRT(C3^2+(C5-C4)^2)</f>
+        <v>9.8310731865854812</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SQRT(D3^2+(D5-D4)^2)</f>
+        <v>9.879271228182775</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SQRT(E3^2+(E5-E4)^2)</f>
+        <v>9.630160954002795</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SQRT(F3^2+(F5-F4)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SQRT(G3^2+(G5-G4)^2)</f>
+        <v>9.6938124595021957</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SQRT(H3^2+(H5-H4)^2)</f>
+        <v>9.8883770154661867</v>
+      </c>
+      <c r="I9" s="8">
+        <f>SQRT(I3^2+(I5-I4)^2)</f>
+        <v>9.8432718137822448</v>
+      </c>
+      <c r="J9" s="8">
+        <f>SQRT(J3^2+(J5-J4)^2)</f>
+        <v>9.6840074349413836</v>
+      </c>
+      <c r="K9" s="8">
+        <f>SQRT(K3^2+(K5-K4)^2)</f>
+        <v>9.7744565066299209</v>
+      </c>
+      <c r="L9" s="8">
+        <f>SQRT(L3^2+(L5-L4)^2)</f>
+        <v>9.7082439194737997</v>
+      </c>
+      <c r="M9" s="8">
+        <f>SQRT(M3^2+(M5-M4)^2)</f>
+        <v>9.8478424032881442</v>
+      </c>
+      <c r="N9" s="8">
+        <f>SQRT(N3^2+(N5-N4)^2)</f>
+        <v>9.815294188153505</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" ref="C10:N10" si="5">1/(2*PI()*C2*0.1*10^-6)</f>
-        <v>3183.098861837907</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="5"/>
-        <v>1591.5494309189535</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="5"/>
-        <v>795.77471545947674</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="5"/>
-        <v>724.41940415063868</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="5"/>
-        <v>530.51647697298449</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="5"/>
-        <v>397.88735772973837</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="5"/>
-        <v>318.30988618379064</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="5"/>
-        <v>265.25823848649225</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="5"/>
-        <v>227.36420441699337</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="5"/>
-        <v>198.94367886486918</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
-        <v>176.83882565766146</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="5"/>
-        <v>159.15494309189532</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C9/SQRT(500^2+(C6-C7)^2)*1000</f>
+        <v>3.2135032770939369</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:N10" si="2">D9/SQRT(500^2+(D6-D7)^2)*1000</f>
+        <v>7.2794526456197826</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>18.584709568801365</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>19.999996426420882</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>14.280966222751944</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>9.4311449639168128</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>6.9229077542124298</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>5.4240372772662591</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>4.5655586761403102</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>3.8978020980773889</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4719705234704255</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="2"/>
+        <v>3.0874607491212265</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2202,7 +2206,7 @@
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0.5</v>
@@ -2243,7 +2247,7 @@
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>3.2</v>
@@ -2284,7 +2288,7 @@
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>1.6</v>
@@ -2325,16 +2329,16 @@
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0.5</v>
@@ -2375,7 +2379,7 @@
     </row>
     <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -2416,7 +2420,7 @@
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -2457,16 +2461,16 @@
     </row>
     <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>0.5</v>
@@ -2507,7 +2511,7 @@
     </row>
     <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3.2</v>
@@ -2548,21 +2552,21 @@
     </row>
     <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <f>C25/4</f>
         <v>0.8</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:N26" si="6">D25/4</f>
+        <f t="shared" ref="D26:L26" si="3">D25/4</f>
         <v>1.9</v>
       </c>
       <c r="E26" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G26" s="3">
@@ -2572,7 +2576,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="J26" s="3">
@@ -2582,7 +2586,7 @@
         <v>1.2</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M26" s="3">
@@ -2594,10 +2598,10 @@
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
